--- a/module/dataTemplate.xlsx
+++ b/module/dataTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Program Code</t>
   </si>
@@ -154,6 +154,57 @@
   </si>
   <si>
     <t>Start Year</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>RollNo</t>
+  </si>
+  <si>
+    <t>Mobile(10digits)</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>DoJ(dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Type(DC/DE/OE)</t>
+  </si>
+  <si>
+    <t>Mode(Offline/Online)</t>
   </si>
 </sst>
 </file>
@@ -212,13 +263,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,370 +579,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>1501</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G2" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>6001</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>2001</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="G4" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>1004</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="G5" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>7001</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="G6" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>1001</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="G7" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>1002</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="G8" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>1003</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="G9" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>2081</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="G10" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>5081</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="G11" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>6051</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="G12" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>2051</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="G13" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>3351</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>1054</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="G15" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>1052</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="G16" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>1053</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>2013</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E51">
-    <sortCondition ref="B1:B51"/>
+  <sortState ref="B1:F51">
+    <sortCondition ref="C1:C51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -895,36 +1000,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
